--- a/Batch23/Homeworks/Database Design & Questions.xlsx
+++ b/Batch23/Homeworks/Database Design & Questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Batch23/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4198045-7BBD-BD42-8E5C-CC1F0238C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355CBF5-1594-C04F-865F-FDDCF2EDB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="116">
   <si>
     <t>No.</t>
   </si>
@@ -368,6 +368,21 @@
   <si>
     <t>DONE</t>
   </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
 </sst>
 </file>
 
@@ -415,7 +430,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +477,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -538,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -745,7 +778,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -767,6 +799,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,7 +1138,7 @@
   </sheetPr>
   <dimension ref="A1:Z884"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -1134,12 +1185,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="2" t="s">
         <v>107</v>
       </c>
@@ -1354,13 +1405,13 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1644,13 +1695,13 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -2006,13 +2057,13 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
@@ -2368,13 +2419,13 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -2770,13 +2821,13 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
@@ -3222,13 +3273,13 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
       <c r="F59" s="69"/>
       <c r="G59" s="69"/>
       <c r="H59" s="56"/>
@@ -26439,8 +26490,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26706,14 +26757,18 @@
       <c r="Z8" s="83"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="86">
+      <c r="A9" s="101">
         <v>1</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="C9" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>113</v>
+      </c>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
       <c r="G9" s="80"/>
@@ -26738,14 +26793,18 @@
       <c r="Z9" s="80"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="86">
+      <c r="A10" s="101">
         <v>2</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="C10" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>113</v>
+      </c>
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
       <c r="G10" s="80"/>
@@ -26770,14 +26829,18 @@
       <c r="Z10" s="80"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="86">
+      <c r="A11" s="101">
         <v>3</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>113</v>
+      </c>
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
       <c r="G11" s="80"/>
@@ -26802,14 +26865,18 @@
       <c r="Z11" s="80"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="86">
+      <c r="A12" s="99">
         <v>4</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>111</v>
+      </c>
       <c r="E12" s="80"/>
       <c r="F12" s="80"/>
       <c r="G12" s="80"/>
@@ -26834,14 +26901,18 @@
       <c r="Z12" s="80"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="86">
+      <c r="A13" s="99">
         <v>5</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
+      <c r="C13" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>111</v>
+      </c>
       <c r="E13" s="80"/>
       <c r="F13" s="80"/>
       <c r="G13" s="80"/>
@@ -26866,14 +26937,18 @@
       <c r="Z13" s="80"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="86">
+      <c r="A14" s="99">
         <v>6</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="C14" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>111</v>
+      </c>
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
       <c r="G14" s="80"/>
@@ -26898,16 +26973,18 @@
       <c r="Z14" s="80"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="86">
+      <c r="A15" s="96">
         <v>7</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="97" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
       <c r="G15" s="80"/>
@@ -26932,16 +27009,18 @@
       <c r="Z15" s="80"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="86">
+      <c r="A16" s="96">
         <v>8</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="97" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="80"/>
+      <c r="D16" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
       <c r="G16" s="80"/>
@@ -26966,16 +27045,18 @@
       <c r="Z16" s="80"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="86">
+      <c r="A17" s="96">
         <v>9</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="98" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="80"/>
+      <c r="D17" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
       <c r="G17" s="80"/>
@@ -27000,16 +27081,18 @@
       <c r="Z17" s="80"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="86">
+      <c r="A18" s="96">
         <v>10</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="97" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
@@ -27034,16 +27117,18 @@
       <c r="Z18" s="80"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="86">
+      <c r="A19" s="96">
         <v>11</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="97" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
@@ -27068,16 +27153,18 @@
       <c r="Z19" s="80"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="86">
+      <c r="A20" s="96">
         <v>12</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="97" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
@@ -27102,16 +27189,18 @@
       <c r="Z20" s="80"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="86">
+      <c r="A21" s="96">
         <v>13</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="97" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="80"/>
+      <c r="D21" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="80"/>
@@ -27142,8 +27231,12 @@
       <c r="B22" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>114</v>
+      </c>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="80"/>
@@ -27174,8 +27267,12 @@
       <c r="B23" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>115</v>
+      </c>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
@@ -27206,8 +27303,12 @@
       <c r="B24" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="C24" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
@@ -27238,8 +27339,12 @@
       <c r="B25" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="C25" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>113</v>
+      </c>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="80"/>
@@ -27270,8 +27375,12 @@
       <c r="B26" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="C26" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>113</v>
+      </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="80"/>
@@ -27302,8 +27411,12 @@
       <c r="B27" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>115</v>
+      </c>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="80"/>

--- a/Batch23/Homeworks/Database Design & Questions.xlsx
+++ b/Batch23/Homeworks/Database Design & Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Batch23/Homeworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Batch23/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355CBF5-1594-C04F-865F-FDDCF2EDB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59654C90-840F-F84F-98B0-68FC570604D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
   <si>
     <t>No.</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>suppliers</t>
+  </si>
+  <si>
+    <t>Collection / API</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -778,6 +784,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -799,25 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,12 +1191,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="2" t="s">
         <v>107</v>
       </c>
@@ -1405,13 +1411,13 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1695,13 +1701,13 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -2057,13 +2063,13 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
@@ -2419,13 +2425,13 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -2821,13 +2827,13 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
@@ -3273,13 +3279,13 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
       <c r="F59" s="69"/>
       <c r="G59" s="69"/>
       <c r="H59" s="56"/>
@@ -26490,14 +26496,14 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="109.33203125" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -26508,7 +26514,9 @@
         <v>91</v>
       </c>
       <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="D1" s="83" t="s">
+        <v>116</v>
+      </c>
       <c r="E1" s="83"/>
       <c r="F1" s="83"/>
       <c r="G1" s="83"/>
@@ -26757,10 +26765,10 @@
       <c r="Z8" s="83"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="101">
+      <c r="A9" s="93">
         <v>1</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="94" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="80" t="s">
@@ -26793,10 +26801,10 @@
       <c r="Z9" s="80"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="101">
+      <c r="A10" s="93">
         <v>2</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="94" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="80" t="s">
@@ -26829,10 +26837,10 @@
       <c r="Z10" s="80"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="101">
+      <c r="A11" s="93">
         <v>3</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="94" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="80" t="s">
@@ -26865,10 +26873,10 @@
       <c r="Z11" s="80"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="99">
+      <c r="A12" s="91">
         <v>4</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="92" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="80" t="s">
@@ -26901,10 +26909,10 @@
       <c r="Z12" s="80"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="99">
+      <c r="A13" s="91">
         <v>5</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="92" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="80" t="s">
@@ -26937,10 +26945,10 @@
       <c r="Z13" s="80"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="99">
+      <c r="A14" s="91">
         <v>6</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="92" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="80" t="s">
@@ -26973,10 +26981,10 @@
       <c r="Z14" s="80"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="96">
+      <c r="A15" s="88">
         <v>7</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="89" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -27009,10 +27017,10 @@
       <c r="Z15" s="80"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="96">
+      <c r="A16" s="88">
         <v>8</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="89" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="80" t="s">
@@ -27045,10 +27053,10 @@
       <c r="Z16" s="80"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="96">
+      <c r="A17" s="88">
         <v>9</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="90" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="80" t="s">
@@ -27081,10 +27089,10 @@
       <c r="Z17" s="80"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="96">
+      <c r="A18" s="88">
         <v>10</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="89" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="80" t="s">
@@ -27117,10 +27125,10 @@
       <c r="Z18" s="80"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="96">
+      <c r="A19" s="88">
         <v>11</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="89" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="80" t="s">
@@ -27153,10 +27161,10 @@
       <c r="Z19" s="80"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="96">
+      <c r="A20" s="88">
         <v>12</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="89" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="80" t="s">
@@ -27189,10 +27197,10 @@
       <c r="Z20" s="80"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="96">
+      <c r="A21" s="88">
         <v>13</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="89" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="80" t="s">
@@ -27447,8 +27455,12 @@
       <c r="B28" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
+      <c r="C28" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="80"/>
@@ -27544,7 +27556,9 @@
         <v>79</v>
       </c>
       <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
+      <c r="D31" s="80" t="s">
+        <v>117</v>
+      </c>
       <c r="E31" s="80"/>
       <c r="F31" s="80"/>
       <c r="G31" s="80"/>

--- a/Batch23/Homeworks/Database Design & Questions.xlsx
+++ b/Batch23/Homeworks/Database Design & Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Batch23/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59654C90-840F-F84F-98B0-68FC570604D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9814BB7-2575-EE49-B33B-121E15E74EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="117">
   <si>
     <t>No.</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>Collection / API</t>
-  </si>
-  <si>
-    <t>$</t>
   </si>
 </sst>
 </file>
@@ -26496,8 +26493,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27556,9 +27553,7 @@
         <v>79</v>
       </c>
       <c r="C31" s="80"/>
-      <c r="D31" s="80" t="s">
-        <v>117</v>
-      </c>
+      <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="80"/>
       <c r="G31" s="80"/>
